--- a/BackUp.xlsx
+++ b/BackUp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects\SFD\HandOver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Projects\GLC\git\testGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>WebServer</t>
   </si>
@@ -70,9 +70,6 @@
   <si>
     <t>E:\Oracle
 E:\jdk</t>
-  </si>
-  <si>
-    <t>SOA/ECM</t>
   </si>
   <si>
     <t>Ryd1EcmApp01Prd.sfd.gov.sa</t>
@@ -296,48 +293,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -628,7 +625,7 @@
   <dimension ref="D2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,79 +650,77 @@
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="4"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>20</v>
+      <c r="G6" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="G9" s="19"/>
     </row>
